--- a/biology/Médecine/René_Helot/René_Helot.xlsx
+++ b/biology/Médecine/René_Helot/René_Helot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Helot</t>
+          <t>René_Helot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">René Helot, né le 9 mars 1875 à Rouen où il est mort le 4 septembre 1940[1], est un chirurgien, érudit et bibliographe français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Helot, né le 9 mars 1875 à Rouen où il est mort le 4 septembre 1940, est un chirurgien, érudit et bibliographe français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Helot</t>
+          <t>René_Helot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petit-fils de Jules Helot, et fils de Paul Helot, René Helot a fait ses études de médecine à l'université de Rouen et à la Faculté de médecine de Paris. Il fut médecin oto-rhino-laryngologiste à Rouen. Médecin des Hôpitaux à l'Hospice général de Rouen, il fut chef du service d'oto-rhino-laryngologie durant 24 années. Deux ans après son installation à Rouen, il prit une place importante dans la lutte contre la tuberculose en créant, avec les docteurs André Halipré et Paul Petit, la première « colonie de santé », sorte de petit préventorium privé, installé au Mesnil-Esnard. Plus tard, il s'occupa, avec le Dr Halipré, du sanatorium d’Oissel.
 Érudit sur des sujets aussi divers que les publicités, la bibliophilie, les gravures, l'histoire de la médecine, les antiquités, et l'histoire, il participa à de nombreuses sociétés savantes rouennaises : 
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Helot</t>
+          <t>René_Helot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Fête de Gustave Flaubert, la Saint-Polycarpe, 1905.
 Les Ponts de l’Hôtel Dieu, 1906.
